--- a/test_info.xlsx
+++ b/test_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,10 +508,10 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1123,20 +1123,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Burst errors low</t>
+          <t>Burst errors high</t>
         </is>
       </c>
       <c r="B28" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" t="n">
+        <v>99</v>
+      </c>
+      <c r="E28" t="n">
         <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>100</v>
-      </c>
-      <c r="D28" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1148,11 +1148,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Burst errors low</t>
+          <t>Burst errors high</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
@@ -1173,20 +1173,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Burst errors low</t>
+          <t>Burst errors high</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1198,20 +1198,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Burst errors low</t>
+          <t>Burst errors high</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
         <v>100</v>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
         <v>100</v>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
         <v>100</v>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
         <v>100</v>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
         <v>100</v>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
         <v>100</v>
@@ -1427,21 +1427,221 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>100</v>
+      </c>
+      <c r="D40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Burst errors low</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>100</v>
+      </c>
+      <c r="D41" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Burst errors low</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Burst errors low</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+      <c r="C43" t="n">
+        <v>100</v>
+      </c>
+      <c r="D43" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Burst errors low</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+      <c r="C44" t="n">
+        <v>100</v>
+      </c>
+      <c r="D44" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Burst errors low</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>14</v>
+      </c>
+      <c r="C45" t="n">
+        <v>100</v>
+      </c>
+      <c r="D45" t="n">
+        <v>98</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Burst errors low</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>15</v>
+      </c>
+      <c r="C46" t="n">
+        <v>100</v>
+      </c>
+      <c r="D46" t="n">
+        <v>98</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Burst errors low</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>16</v>
+      </c>
+      <c r="C47" t="n">
+        <v>100</v>
+      </c>
+      <c r="D47" t="n">
+        <v>97</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Burst errors low</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
         <v>30</v>
       </c>
-      <c r="C40" t="n">
-        <v>100</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11</v>
-      </c>
-      <c r="E40" t="n">
-        <v>89</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="C48" t="n">
+        <v>100</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>93</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>0</v>
       </c>
     </row>
